--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1469248.306566512</v>
+        <v>-1471810.795443735</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13953307.3612016</v>
+        <v>13953307.36120159</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>353.3585227627744</v>
       </c>
       <c r="D11" t="n">
-        <v>139.8092535884541</v>
+        <v>342.7686726124498</v>
       </c>
       <c r="E11" t="n">
-        <v>370.0160010640286</v>
+        <v>48.82201398581566</v>
       </c>
       <c r="F11" t="n">
         <v>394.9616767334783</v>
@@ -1385,10 +1385,10 @@
         <v>399.0073566452203</v>
       </c>
       <c r="H11" t="n">
-        <v>282.6933953790873</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>29.66256076469278</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.2733927799427</v>
+        <v>97.27339277994267</v>
       </c>
       <c r="T11" t="n">
         <v>192.003601131387</v>
       </c>
       <c r="U11" t="n">
-        <v>239.0808029506688</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>315.8378894619017</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.3265997091798</v>
       </c>
       <c r="X11" t="n">
-        <v>357.8167316702359</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>374.3235696478204</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1506,7 +1506,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494259</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>134.519593638336</v>
       </c>
       <c r="F13" t="n">
-        <v>92.76197053922746</v>
+        <v>133.5066790146981</v>
       </c>
       <c r="G13" t="n">
         <v>154.1114392507951</v>
@@ -1546,7 +1546,7 @@
         <v>132.8406459060876</v>
       </c>
       <c r="I13" t="n">
-        <v>84.43805140160495</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.01778366181418</v>
       </c>
       <c r="S13" t="n">
         <v>177.8546563232088</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6345802679361</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>274.2974691973797</v>
+        <v>141.8030857602018</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>240.2232743155949</v>
       </c>
       <c r="W13" t="n">
-        <v>274.6086293283578</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>213.795286380804</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>206.6702843438617</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>370.8194726552474</v>
       </c>
       <c r="C14" t="n">
-        <v>98.86756462280729</v>
+        <v>353.3585227627744</v>
       </c>
       <c r="D14" t="n">
-        <v>342.7686726124498</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>370.0160010640286</v>
       </c>
       <c r="F14" t="n">
-        <v>394.9616767334783</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>399.0073566452203</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>282.6933953790873</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29.66256076469281</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>97.2733927799427</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>192.003601131387</v>
       </c>
       <c r="U14" t="n">
         <v>239.0808029506688</v>
       </c>
       <c r="V14" t="n">
-        <v>315.8378894619017</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>337.3265997091798</v>
       </c>
       <c r="X14" t="n">
-        <v>357.8167316702359</v>
+        <v>180.9374926351683</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>374.3235696478204</v>
       </c>
     </row>
     <row r="15">
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
         <v>225.7871683969286</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.47505560198336</v>
+        <v>167.9176111737042</v>
       </c>
       <c r="C16" t="n">
-        <v>155.3324520903947</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>136.7011040099792</v>
+        <v>14.9961503509698</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>154.1114392507951</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>132.8406459060876</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>84.43805140160495</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>274.6086293283578</v>
       </c>
       <c r="X16" t="n">
-        <v>213.795286380804</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>206.6702843438617</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D17" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H17" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U17" t="n">
         <v>153.3104517307971</v>
@@ -1907,7 +1907,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X17" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y17" t="n">
         <v>288.5532184279487</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824781</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383243</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052297</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010749</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846431</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482638</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092336</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621592</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T19" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U19" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V19" t="n">
         <v>154.4529230957231</v>
@@ -2065,7 +2065,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y19" t="n">
         <v>120.8999331239899</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D20" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U20" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V20" t="n">
         <v>230.06753824203</v>
@@ -2144,7 +2144,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y20" t="n">
         <v>288.5532184279487</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851181</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H22" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T22" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U22" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V22" t="n">
         <v>154.4529230957231</v>
@@ -2302,10 +2302,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D23" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007097</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V23" t="n">
         <v>230.06753824203</v>
@@ -2381,7 +2381,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y23" t="n">
         <v>288.5532184279487</v>
@@ -2412,7 +2412,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247745</v>
@@ -2454,7 +2454,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V24" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H25" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U25" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
         <v>154.4529230957231</v>
@@ -2539,10 +2539,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>296.9634904436089</v>
+        <v>296.9634904436087</v>
       </c>
       <c r="C26" t="n">
-        <v>279.5025405511359</v>
+        <v>279.5025405511357</v>
       </c>
       <c r="D26" t="n">
-        <v>268.9126904008113</v>
+        <v>268.9126904008111</v>
       </c>
       <c r="E26" t="n">
-        <v>296.1600188523901</v>
+        <v>296.16001885239</v>
       </c>
       <c r="F26" t="n">
-        <v>321.1056945218398</v>
+        <v>321.1056945218396</v>
       </c>
       <c r="G26" t="n">
-        <v>325.1513744335818</v>
+        <v>325.1513744335816</v>
       </c>
       <c r="H26" t="n">
-        <v>208.8374131674488</v>
+        <v>208.8374131674486</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>23.41741056830419</v>
+        <v>23.41741056830404</v>
       </c>
       <c r="T26" t="n">
-        <v>118.1476189197485</v>
+        <v>118.1476189197483</v>
       </c>
       <c r="U26" t="n">
-        <v>165.2248207390303</v>
+        <v>165.2248207390302</v>
       </c>
       <c r="V26" t="n">
-        <v>241.9819072502632</v>
+        <v>241.9819072502631</v>
       </c>
       <c r="W26" t="n">
-        <v>263.4706174975414</v>
+        <v>263.4706174975412</v>
       </c>
       <c r="X26" t="n">
-        <v>283.9607494585974</v>
+        <v>283.9607494585972</v>
       </c>
       <c r="Y26" t="n">
-        <v>300.4675874361819</v>
+        <v>300.4675874361818</v>
       </c>
     </row>
     <row r="27">
@@ -2685,7 +2685,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
-        <v>190.7165703189225</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U27" t="n">
         <v>225.7871683969286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.06162896206564</v>
+        <v>94.06162896206548</v>
       </c>
       <c r="C28" t="n">
-        <v>81.47646987875618</v>
+        <v>81.47646987875602</v>
       </c>
       <c r="D28" t="n">
-        <v>62.8451217983407</v>
+        <v>62.84512179834054</v>
       </c>
       <c r="E28" t="n">
-        <v>60.66361142669751</v>
+        <v>60.66361142669736</v>
       </c>
       <c r="F28" t="n">
-        <v>59.65069680305959</v>
+        <v>59.65069680305943</v>
       </c>
       <c r="G28" t="n">
-        <v>80.25545703915657</v>
+        <v>80.25545703915641</v>
       </c>
       <c r="H28" t="n">
-        <v>58.98466369444913</v>
+        <v>58.98466369444897</v>
       </c>
       <c r="I28" t="n">
-        <v>10.58206918996645</v>
+        <v>10.5820691899663</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.161801450175687</v>
+        <v>3.161801450175531</v>
       </c>
       <c r="S28" t="n">
-        <v>103.9986741115702</v>
+        <v>103.9986741115701</v>
       </c>
       <c r="T28" t="n">
-        <v>133.7785980562975</v>
+        <v>133.7785980562974</v>
       </c>
       <c r="U28" t="n">
-        <v>200.4414869857412</v>
+        <v>200.441486985741</v>
       </c>
       <c r="V28" t="n">
-        <v>166.3672921039563</v>
+        <v>166.3672921039562</v>
       </c>
       <c r="W28" t="n">
-        <v>200.7526471167193</v>
+        <v>200.7526471167192</v>
       </c>
       <c r="X28" t="n">
-        <v>139.9393041691655</v>
+        <v>139.9393041691653</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.8143021322231</v>
+        <v>132.814302132223</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>296.9634904436089</v>
+        <v>296.9634904436087</v>
       </c>
       <c r="C29" t="n">
-        <v>279.5025405511359</v>
+        <v>279.5025405511357</v>
       </c>
       <c r="D29" t="n">
-        <v>268.9126904008113</v>
+        <v>268.9126904008111</v>
       </c>
       <c r="E29" t="n">
-        <v>296.1600188523901</v>
+        <v>296.16001885239</v>
       </c>
       <c r="F29" t="n">
-        <v>321.1056945218398</v>
+        <v>321.1056945218396</v>
       </c>
       <c r="G29" t="n">
-        <v>325.1513744335818</v>
+        <v>325.1513744335816</v>
       </c>
       <c r="H29" t="n">
-        <v>208.8374131674488</v>
+        <v>208.8374131674487</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>23.41741056830418</v>
+        <v>23.41741056830404</v>
       </c>
       <c r="T29" t="n">
-        <v>118.1476189197485</v>
+        <v>118.1476189197483</v>
       </c>
       <c r="U29" t="n">
-        <v>165.2248207390303</v>
+        <v>165.2248207390302</v>
       </c>
       <c r="V29" t="n">
-        <v>241.9819072502632</v>
+        <v>241.9819072502631</v>
       </c>
       <c r="W29" t="n">
-        <v>263.4706174975414</v>
+        <v>263.4706174975412</v>
       </c>
       <c r="X29" t="n">
-        <v>283.9607494585974</v>
+        <v>283.9607494585972</v>
       </c>
       <c r="Y29" t="n">
-        <v>300.4675874361819</v>
+        <v>300.4675874361818</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851063</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.06162896206564</v>
+        <v>94.06162896206548</v>
       </c>
       <c r="C31" t="n">
-        <v>81.47646987875618</v>
+        <v>81.47646987875602</v>
       </c>
       <c r="D31" t="n">
-        <v>62.8451217983407</v>
+        <v>62.84512179834054</v>
       </c>
       <c r="E31" t="n">
-        <v>60.66361142669751</v>
+        <v>60.66361142669736</v>
       </c>
       <c r="F31" t="n">
-        <v>59.65069680305959</v>
+        <v>59.65069680305943</v>
       </c>
       <c r="G31" t="n">
-        <v>80.25545703915657</v>
+        <v>80.25545703915641</v>
       </c>
       <c r="H31" t="n">
-        <v>58.98466369444913</v>
+        <v>58.98466369444897</v>
       </c>
       <c r="I31" t="n">
-        <v>10.58206918996644</v>
+        <v>10.5820691899663</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.161801450175673</v>
+        <v>3.161801450175531</v>
       </c>
       <c r="S31" t="n">
-        <v>103.9986741115702</v>
+        <v>103.9986741115701</v>
       </c>
       <c r="T31" t="n">
-        <v>133.7785980562975</v>
+        <v>133.7785980562974</v>
       </c>
       <c r="U31" t="n">
-        <v>200.4414869857412</v>
+        <v>200.441486985741</v>
       </c>
       <c r="V31" t="n">
-        <v>166.3672921039563</v>
+        <v>166.3672921039562</v>
       </c>
       <c r="W31" t="n">
-        <v>200.7526471167193</v>
+        <v>200.7526471167192</v>
       </c>
       <c r="X31" t="n">
-        <v>139.9393041691655</v>
+        <v>139.9393041691653</v>
       </c>
       <c r="Y31" t="n">
-        <v>132.8143021322231</v>
+        <v>132.814302132223</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>296.963490443609</v>
+        <v>296.9634904436087</v>
       </c>
       <c r="C32" t="n">
-        <v>279.502540551136</v>
+        <v>279.5025405511357</v>
       </c>
       <c r="D32" t="n">
-        <v>268.9126904008114</v>
+        <v>268.9126904008111</v>
       </c>
       <c r="E32" t="n">
-        <v>296.1600188523902</v>
+        <v>296.16001885239</v>
       </c>
       <c r="F32" t="n">
-        <v>321.1056945218398</v>
+        <v>321.1056945218396</v>
       </c>
       <c r="G32" t="n">
-        <v>325.1513744335819</v>
+        <v>325.1513744335816</v>
       </c>
       <c r="H32" t="n">
-        <v>208.8374131674489</v>
+        <v>208.8374131674486</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>23.41741056830428</v>
+        <v>23.41741056830401</v>
       </c>
       <c r="T32" t="n">
-        <v>118.1476189197486</v>
+        <v>118.1476189197483</v>
       </c>
       <c r="U32" t="n">
-        <v>165.2248207390304</v>
+        <v>165.2248207390301</v>
       </c>
       <c r="V32" t="n">
-        <v>241.9819072502633</v>
+        <v>241.9819072502631</v>
       </c>
       <c r="W32" t="n">
-        <v>263.4706174975414</v>
+        <v>263.4706174975412</v>
       </c>
       <c r="X32" t="n">
-        <v>283.9607494585974</v>
+        <v>283.9607494585972</v>
       </c>
       <c r="Y32" t="n">
-        <v>300.467587436182</v>
+        <v>300.4675874361818</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247685</v>
+        <v>18.81721868247693</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.06162896206573</v>
+        <v>94.06162896206546</v>
       </c>
       <c r="C34" t="n">
-        <v>81.47646987875626</v>
+        <v>81.47646987875599</v>
       </c>
       <c r="D34" t="n">
-        <v>62.84512179834078</v>
+        <v>62.84512179834051</v>
       </c>
       <c r="E34" t="n">
-        <v>60.6636114266976</v>
+        <v>60.66361142669733</v>
       </c>
       <c r="F34" t="n">
-        <v>59.65069680305967</v>
+        <v>59.6506968030594</v>
       </c>
       <c r="G34" t="n">
-        <v>80.25545703915665</v>
+        <v>80.25545703915638</v>
       </c>
       <c r="H34" t="n">
-        <v>58.98466369444921</v>
+        <v>58.98466369444894</v>
       </c>
       <c r="I34" t="n">
-        <v>10.58206918996654</v>
+        <v>10.58206918996627</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.161801450175773</v>
+        <v>3.161801450175503</v>
       </c>
       <c r="S34" t="n">
-        <v>103.9986741115703</v>
+        <v>103.9986741115701</v>
       </c>
       <c r="T34" t="n">
-        <v>133.7785980562976</v>
+        <v>133.7785980562974</v>
       </c>
       <c r="U34" t="n">
-        <v>200.4414869857413</v>
+        <v>200.441486985741</v>
       </c>
       <c r="V34" t="n">
-        <v>166.3672921039564</v>
+        <v>166.3672921039562</v>
       </c>
       <c r="W34" t="n">
-        <v>200.7526471167194</v>
+        <v>200.7526471167192</v>
       </c>
       <c r="X34" t="n">
-        <v>139.9393041691656</v>
+        <v>139.9393041691653</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.8143021322232</v>
+        <v>132.814302132223</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480642</v>
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3594,7 +3594,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
         <v>89.59687541851116</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092323</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
@@ -3724,7 +3724,7 @@
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
         <v>196.9230441592154</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.0675382420299</v>
@@ -3870,7 +3870,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U42" t="n">
         <v>225.7871683969286</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092316</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775078</v>
@@ -3964,7 +3964,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092316</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775078</v>
@@ -4201,7 +4201,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2055.914911318785</v>
+        <v>1620.974987886465</v>
       </c>
       <c r="C11" t="n">
-        <v>1698.987110548306</v>
+        <v>1264.047187115986</v>
       </c>
       <c r="D11" t="n">
-        <v>1557.76564227714</v>
+        <v>917.8162046791676</v>
       </c>
       <c r="E11" t="n">
-        <v>1184.012105848829</v>
+        <v>868.5010390369297</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0609172291536</v>
+        <v>469.5498504172544</v>
       </c>
       <c r="G11" t="n">
-        <v>382.0231832440825</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>96.47429902278219</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5072,19 +5072,19 @@
         <v>3033.406837860353</v>
       </c>
       <c r="U11" t="n">
-        <v>2791.911077304122</v>
+        <v>3033.406837860353</v>
       </c>
       <c r="V11" t="n">
-        <v>2791.911077304122</v>
+        <v>2714.378666686715</v>
       </c>
       <c r="W11" t="n">
-        <v>2791.911077304122</v>
+        <v>2373.644727586533</v>
       </c>
       <c r="X11" t="n">
-        <v>2430.480035212975</v>
+        <v>2373.644727586533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2430.480035212975</v>
+        <v>1995.540111780654</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.2540954100723</v>
+        <v>783.9977829981547</v>
       </c>
       <c r="C13" t="n">
-        <v>535.3526286520979</v>
+        <v>627.0963162401803</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3526286520979</v>
+        <v>627.0963162401803</v>
       </c>
       <c r="E13" t="n">
-        <v>535.3526286520979</v>
+        <v>491.2179388277196</v>
       </c>
       <c r="F13" t="n">
-        <v>441.6536685114639</v>
+        <v>356.3627074997418</v>
       </c>
       <c r="G13" t="n">
-        <v>285.9855480561154</v>
+        <v>200.6945870443932</v>
       </c>
       <c r="H13" t="n">
-        <v>151.8030774439056</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>123.4299741972698</v>
@@ -5221,28 +5221,28 @@
         <v>2021.656350633699</v>
       </c>
       <c r="R13" t="n">
-        <v>2021.656350633699</v>
+        <v>1943.86060956116</v>
       </c>
       <c r="S13" t="n">
-        <v>1842.005182630458</v>
+        <v>1764.209441557919</v>
       </c>
       <c r="T13" t="n">
-        <v>1632.273283369916</v>
+        <v>1764.209441557919</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.205132665493</v>
+        <v>1620.974001396099</v>
       </c>
       <c r="V13" t="n">
-        <v>1355.205132665493</v>
+        <v>1378.324229360144</v>
       </c>
       <c r="W13" t="n">
-        <v>1077.822678798464</v>
+        <v>1378.324229360144</v>
       </c>
       <c r="X13" t="n">
-        <v>861.8678440703795</v>
+        <v>1162.36939463206</v>
       </c>
       <c r="Y13" t="n">
-        <v>861.8678440703795</v>
+        <v>953.6115316584619</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1688.351784793784</v>
+        <v>1515.742254427945</v>
       </c>
       <c r="C14" t="n">
-        <v>1588.485557902059</v>
+        <v>1158.814453657465</v>
       </c>
       <c r="D14" t="n">
-        <v>1242.254575465241</v>
+        <v>1158.814453657465</v>
       </c>
       <c r="E14" t="n">
-        <v>868.5010390369296</v>
+        <v>785.0609172291535</v>
       </c>
       <c r="F14" t="n">
-        <v>469.5498504172544</v>
+        <v>785.0609172291535</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>382.0231832440826</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>96.47429902278225</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
@@ -5279,13 +5279,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3227.349869306199</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3033.406837860353</v>
       </c>
       <c r="U14" t="n">
-        <v>3084.11006105294</v>
+        <v>2791.911077304123</v>
       </c>
       <c r="V14" t="n">
-        <v>2765.081889879302</v>
+        <v>2791.911077304123</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.347950779121</v>
+        <v>2451.177138203941</v>
       </c>
       <c r="X14" t="n">
-        <v>2062.916908687973</v>
+        <v>2268.411994128013</v>
       </c>
       <c r="Y14" t="n">
-        <v>2062.916908687973</v>
+        <v>1890.307378322134</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.4955064325613</v>
+        <v>456.8012951286051</v>
       </c>
       <c r="C16" t="n">
-        <v>204.5940396745867</v>
+        <v>456.8012951286051</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>441.6536685114639</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>441.6536685114639</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>441.6536685114639</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>285.9855480561153</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>151.8030774439056</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5437,10 +5437,10 @@
         <v>123.4299741972698</v>
       </c>
       <c r="K16" t="n">
-        <v>339.212382464297</v>
+        <v>339.2123824642969</v>
       </c>
       <c r="L16" t="n">
-        <v>667.5674062309439</v>
+        <v>667.5674062309438</v>
       </c>
       <c r="M16" t="n">
         <v>1023.519677148644</v>
@@ -5449,7 +5449,7 @@
         <v>1376.723279172659</v>
       </c>
       <c r="O16" t="n">
-        <v>1687.848103411224</v>
+        <v>1687.848103411223</v>
       </c>
       <c r="P16" t="n">
         <v>1932.250829163034</v>
@@ -5467,19 +5467,19 @@
         <v>1632.273283369916</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.205132665492</v>
+        <v>1355.205132665493</v>
       </c>
       <c r="V16" t="n">
         <v>1112.555360629538</v>
       </c>
       <c r="W16" t="n">
-        <v>835.1729067625099</v>
+        <v>835.17290676251</v>
       </c>
       <c r="X16" t="n">
-        <v>619.2180720344249</v>
+        <v>835.17290676251</v>
       </c>
       <c r="Y16" t="n">
-        <v>410.4602090608274</v>
+        <v>626.4150437889124</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>894.1397680464975</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G17" t="n">
         <v>265.4242822495729</v>
@@ -5513,28 +5513,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5546,13 +5546,13 @@
         <v>3206.680274668176</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X17" t="n">
         <v>2290.538235362621</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5595,49 +5595,49 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.259395817093</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630294</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159871</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919201</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G19" t="n">
         <v>114.0578686404823</v>
@@ -5668,55 +5668,55 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83109325226755</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>176.3617198155308</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
-        <v>350.2377232523206</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>505.9475671746779</v>
+        <v>429.0634411854744</v>
       </c>
       <c r="M19" t="n">
-        <v>673.3800484738758</v>
+        <v>682.0450903563519</v>
       </c>
       <c r="N19" t="n">
-        <v>941.3967585295472</v>
+        <v>950.0618004120233</v>
       </c>
       <c r="O19" t="n">
-        <v>1176.022980773561</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P19" t="n">
-        <v>1371.681856552143</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936508</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T19" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304669</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673496</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431757</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734894</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C20" t="n">
         <v>1440.850850103805</v>
@@ -5735,52 +5735,52 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464971</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G20" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U20" t="n">
         <v>3051.821232515855</v>
@@ -5789,10 +5789,10 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y20" t="n">
         <v>1999.070337960652</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170929</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630293</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919201</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G22" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>175.0427429954468</v>
       </c>
       <c r="K22" t="n">
-        <v>370.061470288941</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L22" t="n">
-        <v>622.4791872371221</v>
+        <v>525.7713142112983</v>
       </c>
       <c r="M22" t="n">
-        <v>886.6195415621438</v>
+        <v>789.91166853632</v>
       </c>
       <c r="N22" t="n">
-        <v>1143.477546463672</v>
+        <v>1057.928378591992</v>
       </c>
       <c r="O22" t="n">
-        <v>1281.395895681862</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P22" t="n">
-        <v>1477.054771460444</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q22" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734893</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C23" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218599</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912114</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810578</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6072,7 +6072,7 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6084,34 +6084,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170929</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630293</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919201</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218345</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J25" t="n">
-        <v>175.0427429954467</v>
+        <v>155.2189959588259</v>
       </c>
       <c r="K25" t="n">
-        <v>370.0614702889409</v>
+        <v>350.2377232523202</v>
       </c>
       <c r="L25" t="n">
-        <v>611.3204820829794</v>
+        <v>505.9475671746774</v>
       </c>
       <c r="M25" t="n">
-        <v>778.7529633821772</v>
+        <v>673.3800484738751</v>
       </c>
       <c r="N25" t="n">
-        <v>1046.769673437848</v>
+        <v>941.3967585295464</v>
       </c>
       <c r="O25" t="n">
-        <v>1281.395895681862</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P25" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q25" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734893</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>1504.462921287734</v>
       </c>
       <c r="D26" t="n">
-        <v>1232.833941084894</v>
+        <v>1232.833941084895</v>
       </c>
       <c r="E26" t="n">
-        <v>933.682406890561</v>
+        <v>933.6824068905617</v>
       </c>
       <c r="F26" t="n">
-        <v>609.3332205048641</v>
+        <v>609.333220504865</v>
       </c>
       <c r="G26" t="n">
-        <v>280.8974887537719</v>
+        <v>280.8974887537717</v>
       </c>
       <c r="H26" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="I26" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J26" t="n">
-        <v>258.8297377254753</v>
+        <v>258.8297377254752</v>
       </c>
       <c r="K26" t="n">
         <v>592.6491114153216</v>
@@ -6236,25 +6236,25 @@
         <v>1577.215229335654</v>
       </c>
       <c r="N26" t="n">
-        <v>2123.994046394437</v>
+        <v>2208.90669410211</v>
       </c>
       <c r="O26" t="n">
-        <v>2626.966517273774</v>
+        <v>2711.879164981447</v>
       </c>
       <c r="P26" t="n">
-        <v>3105.314262302336</v>
+        <v>3106.653531338624</v>
       </c>
       <c r="Q26" t="n">
-        <v>3438.513271765692</v>
+        <v>3354.939893094307</v>
       </c>
       <c r="R26" t="n">
-        <v>3497.530338322494</v>
+        <v>3497.530338322492</v>
       </c>
       <c r="S26" t="n">
-        <v>3473.876388253499</v>
+        <v>3473.876388253498</v>
       </c>
       <c r="T26" t="n">
-        <v>3354.535359041632</v>
+        <v>3354.535359041631</v>
       </c>
       <c r="U26" t="n">
         <v>3187.641600719379</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>944.9823448153751</v>
+        <v>944.9823448153743</v>
       </c>
       <c r="C27" t="n">
-        <v>770.5293155342481</v>
+        <v>770.5293155342473</v>
       </c>
       <c r="D27" t="n">
-        <v>621.5949058729968</v>
+        <v>621.5949058729962</v>
       </c>
       <c r="E27" t="n">
-        <v>462.3574508675414</v>
+        <v>462.3574508675406</v>
       </c>
       <c r="F27" t="n">
-        <v>315.8228928944263</v>
+        <v>315.8228928944256</v>
       </c>
       <c r="G27" t="n">
         <v>179.4597927270444</v>
       </c>
       <c r="H27" t="n">
-        <v>88.95789836491196</v>
+        <v>88.9578983649119</v>
       </c>
       <c r="I27" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J27" t="n">
-        <v>163.6278762570672</v>
+        <v>163.6278762570671</v>
       </c>
       <c r="K27" t="n">
         <v>401.8920752374142</v>
       </c>
       <c r="L27" t="n">
-        <v>768.5902355500796</v>
+        <v>768.5902355500795</v>
       </c>
       <c r="M27" t="n">
         <v>1215.866560772395</v>
@@ -6318,7 +6318,7 @@
         <v>1689.38960432685</v>
       </c>
       <c r="O27" t="n">
-        <v>2100.350883744904</v>
+        <v>2100.350883744905</v>
       </c>
       <c r="P27" t="n">
         <v>2410.850475221007</v>
@@ -6342,13 +6342,13 @@
         <v>1783.046837534131</v>
       </c>
       <c r="W27" t="n">
-        <v>1528.80948080593</v>
+        <v>1528.809480805929</v>
       </c>
       <c r="X27" t="n">
-        <v>1320.957980600397</v>
+        <v>1320.957980600396</v>
       </c>
       <c r="Y27" t="n">
-        <v>1113.197681835443</v>
+        <v>1113.197681835442</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>488.5951419486985</v>
+        <v>488.5951419486974</v>
       </c>
       <c r="C28" t="n">
-        <v>406.2956774247024</v>
+        <v>406.2956774247014</v>
       </c>
       <c r="D28" t="n">
-        <v>342.8157564162775</v>
+        <v>342.8157564162766</v>
       </c>
       <c r="E28" t="n">
-        <v>281.5393812377951</v>
+        <v>281.5393812377944</v>
       </c>
       <c r="F28" t="n">
-        <v>221.2861521437955</v>
+        <v>221.286152143795</v>
       </c>
       <c r="G28" t="n">
-        <v>140.2200339224252</v>
+        <v>140.2200339224249</v>
       </c>
       <c r="H28" t="n">
-        <v>80.63956554419377</v>
+        <v>80.63956554419357</v>
       </c>
       <c r="I28" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644984</v>
       </c>
       <c r="J28" t="n">
-        <v>199.9858869210584</v>
+        <v>166.6860080115624</v>
       </c>
       <c r="K28" t="n">
-        <v>383.2093888964016</v>
+        <v>349.9095099869057</v>
       </c>
       <c r="L28" t="n">
-        <v>623.8318805264317</v>
+        <v>590.532001616936</v>
       </c>
       <c r="M28" t="n">
-        <v>876.1770095333025</v>
+        <v>915.0332059585808</v>
       </c>
       <c r="N28" t="n">
-        <v>1132.398494270823</v>
+        <v>1171.254690696101</v>
       </c>
       <c r="O28" t="n">
-        <v>1355.229491196686</v>
+        <v>1394.085687621964</v>
       </c>
       <c r="P28" t="n">
-        <v>1539.093141657117</v>
+        <v>1577.949338082396</v>
       </c>
       <c r="Q28" t="n">
-        <v>1675.782753148612</v>
+        <v>1675.78275314861</v>
       </c>
       <c r="R28" t="n">
-        <v>1672.589014310051</v>
+        <v>1672.589014310048</v>
       </c>
       <c r="S28" t="n">
-        <v>1567.539848540788</v>
+        <v>1567.539848540786</v>
       </c>
       <c r="T28" t="n">
-        <v>1432.409951514225</v>
+        <v>1432.409951514223</v>
       </c>
       <c r="U28" t="n">
-        <v>1229.943803043779</v>
+        <v>1229.943803043777</v>
       </c>
       <c r="V28" t="n">
-        <v>1061.896033241803</v>
+        <v>1061.896033241801</v>
       </c>
       <c r="W28" t="n">
-        <v>859.1155816087534</v>
+        <v>859.1155816087517</v>
       </c>
       <c r="X28" t="n">
-        <v>717.7627491146468</v>
+        <v>717.7627491146453</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.6068883750274</v>
+        <v>583.6068883750262</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1786.788719824236</v>
+        <v>1786.788719824234</v>
       </c>
       <c r="C29" t="n">
-        <v>1504.462921287736</v>
+        <v>1504.462921287733</v>
       </c>
       <c r="D29" t="n">
-        <v>1232.833941084896</v>
+        <v>1232.833941084894</v>
       </c>
       <c r="E29" t="n">
-        <v>933.6824068905623</v>
+        <v>933.6824068905607</v>
       </c>
       <c r="F29" t="n">
-        <v>609.3332205048655</v>
+        <v>609.3332205048641</v>
       </c>
       <c r="G29" t="n">
-        <v>280.8974887537719</v>
+        <v>280.8974887537717</v>
       </c>
       <c r="H29" t="n">
-        <v>69.95060676644991</v>
+        <v>69.95060676644982</v>
       </c>
       <c r="I29" t="n">
-        <v>69.95060676644991</v>
+        <v>113.7020939989262</v>
       </c>
       <c r="J29" t="n">
-        <v>342.4031163968598</v>
+        <v>302.5812249579516</v>
       </c>
       <c r="K29" t="n">
-        <v>761.1351377943793</v>
+        <v>721.3132463554711</v>
       </c>
       <c r="L29" t="n">
-        <v>1212.169351042788</v>
+        <v>1172.34745960388</v>
       </c>
       <c r="M29" t="n">
-        <v>1745.701255714713</v>
+        <v>1705.879364275804</v>
       </c>
       <c r="N29" t="n">
-        <v>2292.480072773495</v>
+        <v>2252.658181334586</v>
       </c>
       <c r="O29" t="n">
-        <v>2795.452543652832</v>
+        <v>2755.630652213923</v>
       </c>
       <c r="P29" t="n">
-        <v>3190.22691001001</v>
+        <v>3150.4050185711</v>
       </c>
       <c r="Q29" t="n">
-        <v>3438.513271765692</v>
+        <v>3438.513271765688</v>
       </c>
       <c r="R29" t="n">
-        <v>3497.530338322495</v>
+        <v>3497.530338322491</v>
       </c>
       <c r="S29" t="n">
-        <v>3473.876388253501</v>
+        <v>3473.876388253497</v>
       </c>
       <c r="T29" t="n">
-        <v>3354.535359041633</v>
+        <v>3354.53535904163</v>
       </c>
       <c r="U29" t="n">
-        <v>3187.641600719381</v>
+        <v>3187.641600719377</v>
       </c>
       <c r="V29" t="n">
-        <v>2943.21543177972</v>
+        <v>2943.215431779718</v>
       </c>
       <c r="W29" t="n">
-        <v>2677.083494913517</v>
+        <v>2677.083494913515</v>
       </c>
       <c r="X29" t="n">
-        <v>2390.254455056348</v>
+        <v>2390.254455056346</v>
       </c>
       <c r="Y29" t="n">
-        <v>2086.751841484447</v>
+        <v>2086.751841484445</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>944.9823448153752</v>
+        <v>944.9823448153745</v>
       </c>
       <c r="C30" t="n">
-        <v>770.5293155342482</v>
+        <v>770.5293155342475</v>
       </c>
       <c r="D30" t="n">
-        <v>621.5949058729971</v>
+        <v>621.5949058729963</v>
       </c>
       <c r="E30" t="n">
-        <v>462.3574508675415</v>
+        <v>462.3574508675408</v>
       </c>
       <c r="F30" t="n">
-        <v>315.8228928944266</v>
+        <v>315.8228928944258</v>
       </c>
       <c r="G30" t="n">
-        <v>179.4597927270449</v>
+        <v>179.4597927270439</v>
       </c>
       <c r="H30" t="n">
-        <v>88.95789836491196</v>
+        <v>88.9578983649119</v>
       </c>
       <c r="I30" t="n">
-        <v>69.95060676644991</v>
+        <v>69.95060676644982</v>
       </c>
       <c r="J30" t="n">
         <v>163.6278762570671</v>
       </c>
       <c r="K30" t="n">
-        <v>401.8920752374145</v>
+        <v>401.8920752374142</v>
       </c>
       <c r="L30" t="n">
-        <v>768.59023555008</v>
+        <v>768.5902355500795</v>
       </c>
       <c r="M30" t="n">
-        <v>1215.866560772396</v>
+        <v>1215.866560772395</v>
       </c>
       <c r="N30" t="n">
-        <v>1689.389604326851</v>
+        <v>1689.38960432685</v>
       </c>
       <c r="O30" t="n">
-        <v>2100.350883744905</v>
+        <v>2100.350883744904</v>
       </c>
       <c r="P30" t="n">
-        <v>2410.850475221008</v>
+        <v>2410.850475221007</v>
       </c>
       <c r="Q30" t="n">
-        <v>2568.492032867608</v>
+        <v>2568.492032867607</v>
       </c>
       <c r="R30" t="n">
-        <v>2568.347679460123</v>
+        <v>2568.347679460122</v>
       </c>
       <c r="S30" t="n">
-        <v>2438.909792953603</v>
+        <v>2438.909792953602</v>
       </c>
       <c r="T30" t="n">
-        <v>2246.266792631459</v>
+        <v>2246.266792631458</v>
       </c>
       <c r="U30" t="n">
         <v>2018.198945765874</v>
       </c>
       <c r="V30" t="n">
-        <v>1783.046837534132</v>
+        <v>1783.046837534131</v>
       </c>
       <c r="W30" t="n">
-        <v>1528.80948080593</v>
+        <v>1528.809480805929</v>
       </c>
       <c r="X30" t="n">
-        <v>1320.957980600397</v>
+        <v>1320.957980600396</v>
       </c>
       <c r="Y30" t="n">
         <v>1113.197681835443</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>488.5951419486985</v>
+        <v>488.5951419486973</v>
       </c>
       <c r="C31" t="n">
-        <v>406.2956774247024</v>
+        <v>406.2956774247014</v>
       </c>
       <c r="D31" t="n">
-        <v>342.8157564162775</v>
+        <v>342.8157564162765</v>
       </c>
       <c r="E31" t="n">
-        <v>281.5393812377951</v>
+        <v>281.5393812377944</v>
       </c>
       <c r="F31" t="n">
-        <v>221.2861521437955</v>
+        <v>221.286152143795</v>
       </c>
       <c r="G31" t="n">
-        <v>140.2200339224252</v>
+        <v>140.2200339224248</v>
       </c>
       <c r="H31" t="n">
-        <v>80.63956554419379</v>
+        <v>80.63956554419356</v>
       </c>
       <c r="I31" t="n">
-        <v>69.95060676644991</v>
+        <v>69.95060676644982</v>
       </c>
       <c r="J31" t="n">
-        <v>166.6860080115623</v>
+        <v>199.9858869210584</v>
       </c>
       <c r="K31" t="n">
-        <v>349.9095099869056</v>
+        <v>383.2093888964018</v>
       </c>
       <c r="L31" t="n">
-        <v>590.5320016169358</v>
+        <v>623.8318805264321</v>
       </c>
       <c r="M31" t="n">
-        <v>915.0332059585837</v>
+        <v>876.1770095333029</v>
       </c>
       <c r="N31" t="n">
-        <v>1171.254690696104</v>
+        <v>1132.398494270823</v>
       </c>
       <c r="O31" t="n">
-        <v>1394.085687621967</v>
+        <v>1355.229491196686</v>
       </c>
       <c r="P31" t="n">
-        <v>1577.949338082399</v>
+        <v>1539.093141657118</v>
       </c>
       <c r="Q31" t="n">
-        <v>1675.782753148612</v>
+        <v>1675.78275314861</v>
       </c>
       <c r="R31" t="n">
-        <v>1672.589014310051</v>
+        <v>1672.589014310048</v>
       </c>
       <c r="S31" t="n">
-        <v>1567.539848540788</v>
+        <v>1567.539848540786</v>
       </c>
       <c r="T31" t="n">
-        <v>1432.409951514225</v>
+        <v>1432.409951514223</v>
       </c>
       <c r="U31" t="n">
-        <v>1229.943803043779</v>
+        <v>1229.943803043777</v>
       </c>
       <c r="V31" t="n">
-        <v>1061.896033241803</v>
+        <v>1061.896033241801</v>
       </c>
       <c r="W31" t="n">
-        <v>859.1155816087534</v>
+        <v>859.1155816087517</v>
       </c>
       <c r="X31" t="n">
-        <v>717.7627491146468</v>
+        <v>717.7627491146452</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.6068883750274</v>
+        <v>583.6068883750261</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1786.788719824236</v>
+        <v>1786.788719824234</v>
       </c>
       <c r="C32" t="n">
-        <v>1504.462921287735</v>
+        <v>1504.462921287733</v>
       </c>
       <c r="D32" t="n">
-        <v>1232.833941084895</v>
+        <v>1232.833941084893</v>
       </c>
       <c r="E32" t="n">
-        <v>933.6824068905614</v>
+        <v>933.6824068905599</v>
       </c>
       <c r="F32" t="n">
-        <v>609.3332205048646</v>
+        <v>609.3332205048633</v>
       </c>
       <c r="G32" t="n">
-        <v>280.897488753772</v>
+        <v>280.8974887537717</v>
       </c>
       <c r="H32" t="n">
-        <v>69.95060676644991</v>
+        <v>69.95060676644982</v>
       </c>
       <c r="I32" t="n">
-        <v>69.95060676644991</v>
+        <v>69.95060676644982</v>
       </c>
       <c r="J32" t="n">
-        <v>342.4031163968611</v>
+        <v>343.7423854331483</v>
       </c>
       <c r="K32" t="n">
-        <v>676.2224900867075</v>
+        <v>761.1351377943763</v>
       </c>
       <c r="L32" t="n">
-        <v>1127.256703335116</v>
+        <v>1212.169351042785</v>
       </c>
       <c r="M32" t="n">
-        <v>1660.78860800704</v>
+        <v>1745.701255714709</v>
       </c>
       <c r="N32" t="n">
-        <v>2292.480072773496</v>
+        <v>2292.480072773491</v>
       </c>
       <c r="O32" t="n">
-        <v>2795.452543652832</v>
+        <v>2795.452543652828</v>
       </c>
       <c r="P32" t="n">
-        <v>3190.22691001001</v>
+        <v>3190.226910010006</v>
       </c>
       <c r="Q32" t="n">
-        <v>3438.513271765692</v>
+        <v>3438.513271765688</v>
       </c>
       <c r="R32" t="n">
-        <v>3497.530338322495</v>
+        <v>3497.530338322491</v>
       </c>
       <c r="S32" t="n">
-        <v>3473.8763882535</v>
+        <v>3473.876388253497</v>
       </c>
       <c r="T32" t="n">
-        <v>3354.535359041633</v>
+        <v>3354.535359041629</v>
       </c>
       <c r="U32" t="n">
-        <v>3187.641600719381</v>
+        <v>3187.641600719377</v>
       </c>
       <c r="V32" t="n">
-        <v>2943.215431779721</v>
+        <v>2943.215431779717</v>
       </c>
       <c r="W32" t="n">
-        <v>2677.083494913517</v>
+        <v>2677.083494913514</v>
       </c>
       <c r="X32" t="n">
-        <v>2390.254455056348</v>
+        <v>2390.254455056345</v>
       </c>
       <c r="Y32" t="n">
-        <v>2086.751841484447</v>
+        <v>2086.751841484444</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>88.95789836491137</v>
       </c>
       <c r="I33" t="n">
-        <v>69.95060676644991</v>
+        <v>69.95060676644982</v>
       </c>
       <c r="J33" t="n">
-        <v>163.6278762570672</v>
+        <v>163.6278762570671</v>
       </c>
       <c r="K33" t="n">
         <v>401.8920752374142</v>
       </c>
       <c r="L33" t="n">
-        <v>768.5902355500796</v>
+        <v>768.5902355500795</v>
       </c>
       <c r="M33" t="n">
         <v>1215.866560772395</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>488.5951419486991</v>
+        <v>488.5951419486971</v>
       </c>
       <c r="C34" t="n">
-        <v>406.2956774247029</v>
+        <v>406.2956774247012</v>
       </c>
       <c r="D34" t="n">
-        <v>342.8157564162778</v>
+        <v>342.8157564162764</v>
       </c>
       <c r="E34" t="n">
-        <v>281.5393812377955</v>
+        <v>281.5393812377943</v>
       </c>
       <c r="F34" t="n">
-        <v>221.2861521437958</v>
+        <v>221.2861521437949</v>
       </c>
       <c r="G34" t="n">
-        <v>140.2200339224254</v>
+        <v>140.2200339224248</v>
       </c>
       <c r="H34" t="n">
-        <v>80.63956554419389</v>
+        <v>80.63956554419353</v>
       </c>
       <c r="I34" t="n">
-        <v>69.95060676644991</v>
+        <v>69.95060676644982</v>
       </c>
       <c r="J34" t="n">
-        <v>199.9858869210583</v>
+        <v>166.6860080115624</v>
       </c>
       <c r="K34" t="n">
-        <v>383.2093888964015</v>
+        <v>349.9095099869058</v>
       </c>
       <c r="L34" t="n">
-        <v>623.8318805264315</v>
+        <v>590.5320016169362</v>
       </c>
       <c r="M34" t="n">
-        <v>876.1770095333021</v>
+        <v>915.0332059585805</v>
       </c>
       <c r="N34" t="n">
-        <v>1132.398494270823</v>
+        <v>1171.254690696101</v>
       </c>
       <c r="O34" t="n">
-        <v>1355.229491196685</v>
+        <v>1394.085687621964</v>
       </c>
       <c r="P34" t="n">
-        <v>1539.093141657117</v>
+        <v>1577.949338082396</v>
       </c>
       <c r="Q34" t="n">
-        <v>1675.782753148614</v>
+        <v>1675.782753148609</v>
       </c>
       <c r="R34" t="n">
-        <v>1672.589014310052</v>
+        <v>1672.589014310048</v>
       </c>
       <c r="S34" t="n">
-        <v>1567.539848540789</v>
+        <v>1567.539848540785</v>
       </c>
       <c r="T34" t="n">
-        <v>1432.409951514226</v>
+        <v>1432.409951514222</v>
       </c>
       <c r="U34" t="n">
-        <v>1229.94380304378</v>
+        <v>1229.943803043777</v>
       </c>
       <c r="V34" t="n">
-        <v>1061.896033241804</v>
+        <v>1061.896033241801</v>
       </c>
       <c r="W34" t="n">
-        <v>859.1155816087542</v>
+        <v>859.1155816087514</v>
       </c>
       <c r="X34" t="n">
-        <v>717.7627491146475</v>
+        <v>717.762749114645</v>
       </c>
       <c r="Y34" t="n">
-        <v>583.6068883750281</v>
+        <v>583.6068883750258</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,64 +6920,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218326</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7008,34 +7008,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
         <v>67.83109325226761</v>
       </c>
       <c r="J37" t="n">
-        <v>176.361719815531</v>
+        <v>79.65384678970703</v>
       </c>
       <c r="K37" t="n">
-        <v>274.6725740832013</v>
+        <v>253.5298502264957</v>
       </c>
       <c r="L37" t="n">
-        <v>527.0902910313824</v>
+        <v>505.9475671746768</v>
       </c>
       <c r="M37" t="n">
-        <v>791.2306453564041</v>
+        <v>770.0879214996985</v>
       </c>
       <c r="N37" t="n">
-        <v>1059.247355412076</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O37" t="n">
-        <v>1281.39589568186</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P37" t="n">
-        <v>1477.054771460443</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
         <v>1489.975538818984</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
         <v>1273.865908363023</v>
@@ -7129,16 +7129,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="38">
@@ -7157,46 +7157,46 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218372</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
         <v>3313.986587710109</v>
@@ -7211,7 +7211,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.021302392778</v>
@@ -7248,7 +7248,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7272,31 +7272,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170921</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
         <v>183.0892706919198</v>
@@ -7324,58 +7324,58 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226762</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J40" t="n">
         <v>176.361719815531</v>
       </c>
       <c r="K40" t="n">
-        <v>371.3804471090252</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L40" t="n">
-        <v>623.7981640572063</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M40" t="n">
-        <v>791.2306453564041</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N40" t="n">
-        <v>962.5394823862516</v>
+        <v>941.3967585295452</v>
       </c>
       <c r="O40" t="n">
-        <v>1197.165704630265</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P40" t="n">
-        <v>1392.824580408848</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="41">
@@ -7394,34 +7394,34 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218326</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939507</v>
@@ -7430,7 +7430,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
@@ -7445,16 +7445,16 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7509,13 +7509,13 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170917</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630283</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J43" t="n">
-        <v>175.0427429954468</v>
+        <v>155.2189959588244</v>
       </c>
       <c r="K43" t="n">
-        <v>370.0614702889412</v>
+        <v>253.5298502264947</v>
       </c>
       <c r="L43" t="n">
-        <v>622.4791872371225</v>
+        <v>505.9475671746759</v>
       </c>
       <c r="M43" t="n">
-        <v>789.9116685363202</v>
+        <v>770.0879214996976</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.928378591992</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O43" t="n">
-        <v>1195.846727810181</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P43" t="n">
-        <v>1391.505603588764</v>
+        <v>1468.389729577965</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R43" t="n">
         <v>1489.975538818983</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T43" t="n">
         <v>1273.865908363022</v>
@@ -7603,16 +7603,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304656</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673484</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431745</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734879</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912077</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810541</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329463</v>
@@ -7661,34 +7661,34 @@
         <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960651</v>
@@ -7719,10 +7719,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7749,7 +7749,7 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
         <v>2435.471302619336</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170917</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630283</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218338</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954468</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K46" t="n">
-        <v>370.0614702889412</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L46" t="n">
-        <v>622.4791872371223</v>
+        <v>623.7981640572066</v>
       </c>
       <c r="M46" t="n">
-        <v>789.9116685363201</v>
+        <v>866.7957945255217</v>
       </c>
       <c r="N46" t="n">
-        <v>961.2205055661676</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O46" t="n">
-        <v>1184.688022656035</v>
+        <v>1176.022980773559</v>
       </c>
       <c r="P46" t="n">
-        <v>1380.346898434618</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818983</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
         <v>1273.865908363022</v>
@@ -7840,16 +7840,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304656</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673484</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431745</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734879</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
   </sheetData>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10039,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>72.88492458057971</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.24868325786019</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>72.88492458058306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>39.24868325785634</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>72.88492458057925</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2486832578621</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>202.9594190239958</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>321.193987078213</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>282.6933953790873</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.66256076469278</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>239.0808029506688</v>
       </c>
       <c r="V11" t="n">
-        <v>315.8378894619017</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.3265997091798</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>357.8167316702359</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.3235696478204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,10 +23422,10 @@
         <v>136.7011040099792</v>
       </c>
       <c r="E13" t="n">
-        <v>134.519593638336</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>40.74470847547065</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>84.43805140160495</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.01778366181419</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.6345802679361</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>132.494383437178</v>
       </c>
       <c r="V13" t="n">
-        <v>240.2232743155949</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>274.6086293283578</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6702843438617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>254.4909581399671</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>342.7686726124498</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>394.9616767334783</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>282.6933953790873</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>29.66256076469281</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.2733927799427</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>192.003601131387</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>315.8378894619017</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>176.8792390350676</v>
       </c>
       <c r="Y14" t="n">
-        <v>374.3235696478204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119.4425555717208</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>155.3324520903947</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.7049536590094</v>
       </c>
       <c r="E16" t="n">
         <v>134.519593638336</v>
@@ -23665,13 +23665,13 @@
         <v>133.5066790146981</v>
       </c>
       <c r="G16" t="n">
-        <v>154.1114392507951</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>132.8406459060876</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>84.43805140160495</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.01778366181418</v>
+        <v>77.01778366181419</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>213.795286380804</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1232655.928665135</v>
+        <v>1232655.928665134</v>
       </c>
     </row>
     <row r="13">
@@ -26317,7 +26317,7 @@
         <v>204819.0846792596</v>
       </c>
       <c r="D2" t="n">
-        <v>204820.639262447</v>
+        <v>204820.6392624469</v>
       </c>
       <c r="E2" t="n">
         <v>175759.2771663268</v>
@@ -26326,10 +26326,10 @@
         <v>175759.2771663268</v>
       </c>
       <c r="G2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="H2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="I2" t="n">
         <v>205260.4424660709</v>
@@ -26338,22 +26338,22 @@
         <v>205260.4424660711</v>
       </c>
       <c r="K2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.442466071</v>
       </c>
       <c r="L2" t="n">
         <v>205260.4424660711</v>
       </c>
       <c r="M2" t="n">
+        <v>205260.4424660708</v>
+      </c>
+      <c r="N2" t="n">
+        <v>205260.4424660709</v>
+      </c>
+      <c r="O2" t="n">
         <v>205260.442466071</v>
       </c>
-      <c r="N2" t="n">
-        <v>205260.442466071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>205260.4424660708</v>
-      </c>
       <c r="P2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16642.08507315514</v>
+        <v>16642.08507315439</v>
       </c>
       <c r="E3" t="n">
         <v>1117687.589588135</v>
@@ -26378,28 +26378,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68616.28097589755</v>
+        <v>68616.28097589743</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11245.75456273503</v>
+        <v>11245.75456273506</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68616.2809758973</v>
+        <v>68616.28097589745</v>
       </c>
       <c r="M3" t="n">
-        <v>206008.9941829028</v>
+        <v>206008.9941829029</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>460842.8736226514</v>
+        <v>460842.8736226518</v>
       </c>
       <c r="E4" t="n">
-        <v>27909.85740473178</v>
+        <v>27909.85740473177</v>
       </c>
       <c r="F4" t="n">
         <v>27909.85740473178</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657689</v>
+        <v>93774.13782657697</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657692</v>
+        <v>93774.137826577</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="J4" t="n">
-        <v>94100.04165292099</v>
+        <v>94100.04165292095</v>
       </c>
       <c r="K4" t="n">
-        <v>94100.04165292095</v>
+        <v>94100.04165292096</v>
       </c>
       <c r="L4" t="n">
-        <v>94100.04165292098</v>
+        <v>94100.04165292096</v>
       </c>
       <c r="M4" t="n">
+        <v>93774.13782657702</v>
+      </c>
+      <c r="N4" t="n">
         <v>93774.13782657703</v>
       </c>
-      <c r="N4" t="n">
-        <v>93774.13782657706</v>
-      </c>
       <c r="O4" t="n">
-        <v>93774.13782657709</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657709</v>
+        <v>93774.13782657705</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34051.223918566</v>
+        <v>34051.22391856598</v>
       </c>
       <c r="E5" t="n">
         <v>75307.96964954646</v>
@@ -26482,34 +26482,34 @@
         <v>75307.96964954646</v>
       </c>
       <c r="G5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="H5" t="n">
         <v>82518.59730624987</v>
       </c>
       <c r="I5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="J5" t="n">
-        <v>84130.22087213919</v>
+        <v>84130.22087213918</v>
       </c>
       <c r="K5" t="n">
-        <v>84130.22087213921</v>
+        <v>84130.22087213917</v>
       </c>
       <c r="L5" t="n">
-        <v>84130.22087213921</v>
+        <v>84130.22087213917</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="N5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624984</v>
       </c>
-      <c r="N5" t="n">
-        <v>82518.59730624984</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="P5" t="n">
-        <v>82518.59730624982</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-296424.4752524716</v>
+        <v>-296428.8888303398</v>
       </c>
       <c r="C6" t="n">
-        <v>-296424.4752524716</v>
+        <v>-296428.8888303398</v>
       </c>
       <c r="D6" t="n">
-        <v>-306715.5433519257</v>
+        <v>-306719.9413839615</v>
       </c>
       <c r="E6" t="n">
-        <v>-1045146.139476086</v>
+        <v>-1045441.151129084</v>
       </c>
       <c r="F6" t="n">
-        <v>72541.45011204851</v>
+        <v>72246.43845905131</v>
       </c>
       <c r="G6" t="n">
-        <v>-39648.57364265333</v>
+        <v>-39648.5736426534</v>
       </c>
       <c r="H6" t="n">
-        <v>28967.70733324409</v>
+        <v>28967.70733324392</v>
       </c>
       <c r="I6" t="n">
-        <v>28967.70733324433</v>
+        <v>28967.70733324418</v>
       </c>
       <c r="J6" t="n">
-        <v>15784.42537827583</v>
+        <v>15784.42537827592</v>
       </c>
       <c r="K6" t="n">
-        <v>27030.17994101092</v>
+        <v>27030.17994101087</v>
       </c>
       <c r="L6" t="n">
-        <v>-41586.10103488644</v>
+        <v>-41586.10103488649</v>
       </c>
       <c r="M6" t="n">
-        <v>-177041.2868496587</v>
+        <v>-177041.286849659</v>
       </c>
       <c r="N6" t="n">
-        <v>28967.70733324406</v>
+        <v>28967.70733324396</v>
       </c>
       <c r="O6" t="n">
-        <v>28967.70733324387</v>
+        <v>28967.70733324415</v>
       </c>
       <c r="P6" t="n">
-        <v>28967.70733324405</v>
+        <v>28967.70733324398</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="F2" t="n">
         <v>11.91436900823314</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J2" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="K2" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="L2" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.43228984247705</v>
+        <v>19.43228984247617</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26805,31 +26805,31 @@
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>874.3825845806235</v>
+        <v>874.382584580623</v>
       </c>
       <c r="K4" t="n">
-        <v>874.3825845806238</v>
+        <v>874.3825845806227</v>
       </c>
       <c r="L4" t="n">
-        <v>874.3825845806238</v>
+        <v>874.3825845806227</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,34 +26914,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>11.91436900823314</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>85.77035121987178</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>85.77035121987181</v>
+      </c>
+      <c r="M2" t="n">
         <v>11.91436900823315</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>85.77035121987171</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>85.77035121987163</v>
-      </c>
-      <c r="M2" t="n">
-        <v>11.91436900823342</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.43228984247705</v>
+        <v>19.43228984247617</v>
       </c>
       <c r="E3" t="n">
-        <v>1070.344410750821</v>
+        <v>1070.344410750822</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>42.98112917833043</v>
+        <v>42.98112917833032</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>788.4203262239614</v>
+        <v>788.4203262239628</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.77035121987171</v>
+        <v>85.77035121987178</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,40 +27871,40 @@
         <v>338.6747581425038</v>
       </c>
       <c r="I8" t="n">
-        <v>207.4641775939151</v>
+        <v>207.4641775939152</v>
       </c>
       <c r="J8" t="n">
-        <v>174.4155877024936</v>
+        <v>174.4155877024939</v>
       </c>
       <c r="K8" t="n">
-        <v>210.1527248578449</v>
+        <v>210.1527248578454</v>
       </c>
       <c r="L8" t="n">
-        <v>223.4385312340407</v>
+        <v>223.4385312340413</v>
       </c>
       <c r="M8" t="n">
-        <v>216.6290872421357</v>
+        <v>216.6290872421363</v>
       </c>
       <c r="N8" t="n">
-        <v>215.4739598485797</v>
+        <v>215.4739598485803</v>
       </c>
       <c r="O8" t="n">
-        <v>216.9359110188861</v>
+        <v>216.9359110188867</v>
       </c>
       <c r="P8" t="n">
-        <v>219.9992768820615</v>
+        <v>219.999276882062</v>
       </c>
       <c r="Q8" t="n">
-        <v>213.8696348403719</v>
+        <v>213.8696348403723</v>
       </c>
       <c r="R8" t="n">
-        <v>210.6783475555693</v>
+        <v>210.6783475555695</v>
       </c>
       <c r="S8" t="n">
-        <v>207.2399155971581</v>
+        <v>207.2399155971582</v>
       </c>
       <c r="T8" t="n">
-        <v>222.7538803227828</v>
+        <v>222.7538803227829</v>
       </c>
       <c r="U8" t="n">
         <v>251.3394033271836</v>
@@ -27950,37 +27950,37 @@
         <v>111.8317659135424</v>
       </c>
       <c r="I9" t="n">
-        <v>98.08329061072222</v>
+        <v>98.08329061072229</v>
       </c>
       <c r="J9" t="n">
-        <v>122.888655388395</v>
+        <v>122.8886553883952</v>
       </c>
       <c r="K9" t="n">
-        <v>131.0920180769017</v>
+        <v>131.092018076902</v>
       </c>
       <c r="L9" t="n">
-        <v>129.4789504529702</v>
+        <v>129.4789504529706</v>
       </c>
       <c r="M9" t="n">
-        <v>131.5434359578683</v>
+        <v>131.5434359578688</v>
       </c>
       <c r="N9" t="n">
-        <v>120.47081250438</v>
+        <v>120.4708125043805</v>
       </c>
       <c r="O9" t="n">
-        <v>132.6514951323232</v>
+        <v>132.6514951323236</v>
       </c>
       <c r="P9" t="n">
-        <v>125.9928693467664</v>
+        <v>125.9928693467668</v>
       </c>
       <c r="Q9" t="n">
-        <v>134.646327259838</v>
+        <v>134.6463272598382</v>
       </c>
       <c r="R9" t="n">
-        <v>143.0843766525479</v>
+        <v>143.084376652548</v>
       </c>
       <c r="S9" t="n">
-        <v>170.9067961275841</v>
+        <v>170.9067961275842</v>
       </c>
       <c r="T9" t="n">
         <v>199.9962544083571</v>
@@ -28029,40 +28029,40 @@
         <v>161.9156187457028</v>
       </c>
       <c r="I10" t="n">
-        <v>154.3966714059646</v>
+        <v>154.3966714059647</v>
       </c>
       <c r="J10" t="n">
-        <v>124.5179637655446</v>
+        <v>124.5179637655447</v>
       </c>
       <c r="K10" t="n">
-        <v>124.9420341674722</v>
+        <v>124.9420341674723</v>
       </c>
       <c r="L10" t="n">
-        <v>129.6749112306831</v>
+        <v>129.6749112306833</v>
       </c>
       <c r="M10" t="n">
-        <v>133.4328171647554</v>
+        <v>133.4328171647556</v>
       </c>
       <c r="N10" t="n">
-        <v>122.3231881550952</v>
+        <v>122.3231881550955</v>
       </c>
       <c r="O10" t="n">
-        <v>133.5035344769111</v>
+        <v>133.5035344769113</v>
       </c>
       <c r="P10" t="n">
-        <v>133.4898534907162</v>
+        <v>133.4898534907164</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.5707258632318</v>
+        <v>148.5707258632319</v>
       </c>
       <c r="R10" t="n">
-        <v>175.717783089286</v>
+        <v>175.7177830892861</v>
       </c>
       <c r="S10" t="n">
         <v>223.4059144365128</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7958652278558</v>
+        <v>227.7958652278559</v>
       </c>
       <c r="U10" t="n">
         <v>286.3171179837195</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="C11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="D11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="E11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="F11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="G11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="H11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="I11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="T11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="U11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="V11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="W11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="X11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
     </row>
     <row r="12">
@@ -28226,7 +28226,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="C13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="D13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="E13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="F13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="G13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="H13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="I13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="J13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="K13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="L13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="M13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="N13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="O13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="P13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="R13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="S13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="T13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="U13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="V13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="W13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="X13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.91436900823315</v>
+        <v>11.91436900823314</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.963318810448982e-13</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810487</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>76.32843350416096</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>86.41330088048454</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810487</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-6.679101716144942e-13</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N22" t="n">
-        <v>86.41330088048534</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.41330088048454</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292849</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="24">
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29174,7 +29174,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J25" t="n">
-        <v>97.68472022810488</v>
+        <v>76.32843350416051</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L25" t="n">
-        <v>86.41330088048619</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="C26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="D26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="E26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="F26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="G26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="H26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29308,40 +29308,40 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>84.41755421352002</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>85.77035121987166</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>84.41755421351792</v>
       </c>
       <c r="S26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="T26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="U26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="V26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="W26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="X26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
     </row>
     <row r="27">
@@ -29405,7 +29405,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="C28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="D28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="E28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="F28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="G28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="H28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="I28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="J28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="K28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="L28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="M28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="N28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="O28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="P28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="R28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="S28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="T28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="U28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="V28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="W28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="X28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
     </row>
     <row r="29">
@@ -29509,34 +29509,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="C29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="D29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="E29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="F29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="G29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="H29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="J29" t="n">
-        <v>84.41755421351974</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -29554,31 +29554,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>40.22413276657156</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="T29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="U29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="V29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="W29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="X29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="Y29" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
     </row>
     <row r="30">
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="C31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="D31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="E31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="F31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="G31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="H31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="I31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="J31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="K31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="L31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="M31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="N31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="O31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="P31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="R31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="S31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="T31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="U31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="V31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="W31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="X31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987181</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="C32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="D32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="E32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="F32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="G32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="H32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
-        <v>84.41755421352104</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>84.41755421351684</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,7 +29782,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>85.77035121987157</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="T32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="U32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="V32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="W32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="X32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="Y32" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="C34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="D34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="E34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="F34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="G34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="H34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="I34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="J34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="K34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="L34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="M34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="N34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="O34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="P34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="R34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="S34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="T34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="U34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="V34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="W34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="X34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.77035121987157</v>
+        <v>85.77035121987184</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>76.32843350415996</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O37" t="n">
-        <v>85.08100106221696</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>76.32843350415899</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q40" t="n">
-        <v>76.32843350415952</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810506</v>
+        <v>76.32843350415892</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.41330088048274</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>76.32843350415899</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>86.41330088048269</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07811975816071171</v>
+        <v>0.07811975816070817</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8000439732633889</v>
+        <v>0.8000439732633526</v>
       </c>
       <c r="I8" t="n">
-        <v>3.011711976490841</v>
+        <v>3.011711976490704</v>
       </c>
       <c r="J8" t="n">
-        <v>6.630316824192711</v>
+        <v>6.63031682419241</v>
       </c>
       <c r="K8" t="n">
-        <v>9.93712618713564</v>
+        <v>9.937126187135188</v>
       </c>
       <c r="L8" t="n">
-        <v>12.32788373594652</v>
+        <v>12.32788373594596</v>
       </c>
       <c r="M8" t="n">
-        <v>13.71714598513708</v>
+        <v>13.71714598513646</v>
       </c>
       <c r="N8" t="n">
-        <v>13.9391037480112</v>
+        <v>13.93910374801057</v>
       </c>
       <c r="O8" t="n">
-        <v>13.16230040280062</v>
+        <v>13.16230040280003</v>
       </c>
       <c r="P8" t="n">
-        <v>11.23371887320805</v>
+        <v>11.23371887320754</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.436055034077562</v>
+        <v>8.43605503407718</v>
       </c>
       <c r="R8" t="n">
-        <v>4.907190258562811</v>
+        <v>4.907190258562588</v>
       </c>
       <c r="S8" t="n">
-        <v>1.78015398908722</v>
+        <v>1.780153989087139</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3419692413485156</v>
+        <v>0.3419692413485002</v>
       </c>
       <c r="U8" t="n">
-        <v>0.006249580652856935</v>
+        <v>0.006249580652856652</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04179775551023366</v>
+        <v>0.04179775551023177</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4036783229540988</v>
+        <v>0.4036783229540805</v>
       </c>
       <c r="I9" t="n">
-        <v>1.439089389277782</v>
+        <v>1.439089389277717</v>
       </c>
       <c r="J9" t="n">
-        <v>3.948971278271681</v>
+        <v>3.948971278271503</v>
       </c>
       <c r="K9" t="n">
-        <v>6.749420897457336</v>
+        <v>6.74942089745703</v>
       </c>
       <c r="L9" t="n">
-        <v>9.075429326904024</v>
+        <v>9.075429326903611</v>
       </c>
       <c r="M9" t="n">
-        <v>10.59059796414999</v>
+        <v>10.59059796414951</v>
       </c>
       <c r="N9" t="n">
-        <v>10.87089957895327</v>
+        <v>10.87089957895278</v>
       </c>
       <c r="O9" t="n">
-        <v>9.944749312121251</v>
+        <v>9.9447493121208</v>
       </c>
       <c r="P9" t="n">
-        <v>7.98153806756383</v>
+        <v>7.981538067563467</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.335446826183511</v>
+        <v>5.335446826183269</v>
       </c>
       <c r="R9" t="n">
-        <v>2.595127311416087</v>
+        <v>2.59512731141597</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7763749762536817</v>
+        <v>0.7763749762536465</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1684742864644944</v>
+        <v>0.1684742864644867</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002749852336199584</v>
+        <v>0.002749852336199459</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03504183414217173</v>
+        <v>0.03504183414217014</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3115537617367634</v>
+        <v>0.3115537617367493</v>
       </c>
       <c r="I10" t="n">
-        <v>1.053803521293674</v>
+        <v>1.053803521293626</v>
       </c>
       <c r="J10" t="n">
-        <v>2.477457673851541</v>
+        <v>2.477457673851429</v>
       </c>
       <c r="K10" t="n">
-        <v>4.071224003063223</v>
+        <v>4.071224003063039</v>
       </c>
       <c r="L10" t="n">
-        <v>5.209765050555241</v>
+        <v>5.209765050555005</v>
       </c>
       <c r="M10" t="n">
-        <v>5.4929667828497</v>
+        <v>5.492966782849451</v>
       </c>
       <c r="N10" t="n">
-        <v>5.362356310137973</v>
+        <v>5.362356310137731</v>
       </c>
       <c r="O10" t="n">
-        <v>4.953003974931693</v>
+        <v>4.953003974931469</v>
       </c>
       <c r="P10" t="n">
-        <v>4.238150558431386</v>
+        <v>4.238150558431194</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.934275766214034</v>
+        <v>2.934275766213902</v>
       </c>
       <c r="R10" t="n">
-        <v>1.575608287883467</v>
+        <v>1.575608287883395</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6106836004594834</v>
+        <v>0.6106836004594557</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1497242004256428</v>
+        <v>0.149724200425636</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001911372771391187</v>
+        <v>0.001911372771391101</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34366,7 +34366,7 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953978</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.2811376003809</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.49278562129938</v>
+        <v>57.49278562129939</v>
       </c>
       <c r="K13" t="n">
-        <v>217.9620285525527</v>
+        <v>217.9620285525528</v>
       </c>
       <c r="L13" t="n">
         <v>331.6717411784313</v>
       </c>
       <c r="M13" t="n">
-        <v>359.547748401717</v>
+        <v>359.5477484017171</v>
       </c>
       <c r="N13" t="n">
-        <v>356.7713151757732</v>
+        <v>356.7713151757733</v>
       </c>
       <c r="O13" t="n">
-        <v>314.2674992308729</v>
+        <v>314.267499230873</v>
       </c>
       <c r="P13" t="n">
         <v>246.8714401533436</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.30860754612681</v>
+        <v>90.30860754612682</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.49278562129937</v>
+        <v>57.49278562129936</v>
       </c>
       <c r="K16" t="n">
         <v>217.9620285525527</v>
@@ -35811,7 +35811,7 @@
         <v>331.6717411784313</v>
       </c>
       <c r="M16" t="n">
-        <v>359.547748401717</v>
+        <v>359.5477484017169</v>
       </c>
       <c r="N16" t="n">
         <v>356.7713151757732</v>
@@ -35823,7 +35823,7 @@
         <v>246.8714401533436</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.30860754612681</v>
+        <v>90.30860754612679</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36036,19 +36036,19 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.332299818266783</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>175.6323267038281</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286438</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>255.5370193645227</v>
       </c>
       <c r="N19" t="n">
         <v>270.7239495511832</v>
@@ -36063,7 +36063,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057549</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36282,22 +36282,22 @@
         <v>196.988613427772</v>
       </c>
       <c r="L22" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N22" t="n">
-        <v>259.4525302035637</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014223</v>
+        <v>99.46458104062674</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36510,34 +36510,34 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J25" t="n">
-        <v>109.6268955184477</v>
+        <v>88.27060879450337</v>
       </c>
       <c r="K25" t="n">
-        <v>196.9886134277719</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>243.6959715091298</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M25" t="n">
         <v>169.1237184840381</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511831</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848621</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.736000388247</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36604,19 +36604,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>638.0721866327831</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>483.1795404328917</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>336.5646560235911</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>144.0307527557426</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>131.3487678329379</v>
+        <v>97.71252651021467</v>
       </c>
       <c r="K28" t="n">
-        <v>185.0742444195386</v>
+        <v>185.0742444195388</v>
       </c>
       <c r="L28" t="n">
-        <v>243.0530218485153</v>
+        <v>243.0530218485155</v>
       </c>
       <c r="M28" t="n">
-        <v>254.8940697039098</v>
+        <v>327.7789942844897</v>
       </c>
       <c r="N28" t="n">
-        <v>258.8095805429499</v>
+        <v>258.8095805429501</v>
       </c>
       <c r="O28" t="n">
-        <v>225.0818150766289</v>
+        <v>225.0818150766291</v>
       </c>
       <c r="P28" t="n">
-        <v>185.7208590509409</v>
+        <v>185.7208590509411</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.070314637874</v>
+        <v>98.82163138001398</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>44.19342144694583</v>
       </c>
       <c r="J29" t="n">
-        <v>275.2045551822323</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>422.9616377752722</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>291.018437570291</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>97.71252651021454</v>
+        <v>131.348767832938</v>
       </c>
       <c r="K31" t="n">
-        <v>185.0742444195387</v>
+        <v>185.0742444195388</v>
       </c>
       <c r="L31" t="n">
-        <v>243.0530218485154</v>
+        <v>243.0530218485155</v>
       </c>
       <c r="M31" t="n">
-        <v>327.7789942844929</v>
+        <v>254.89406970391</v>
       </c>
       <c r="N31" t="n">
-        <v>258.80958054295</v>
+        <v>258.8095805429501</v>
       </c>
       <c r="O31" t="n">
-        <v>225.081815076629</v>
+        <v>225.0818150766291</v>
       </c>
       <c r="P31" t="n">
-        <v>185.720859050941</v>
+        <v>185.7208590509411</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.82163138001386</v>
+        <v>138.0703146378703</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>275.2045551822335</v>
+        <v>276.5573521885843</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>421.6088407689172</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37078,7 +37078,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>638.0721866327829</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>131.3487678329378</v>
+        <v>97.7125265102147</v>
       </c>
       <c r="K34" t="n">
-        <v>185.0742444195386</v>
+        <v>185.0742444195388</v>
       </c>
       <c r="L34" t="n">
-        <v>243.0530218485152</v>
+        <v>243.0530218485155</v>
       </c>
       <c r="M34" t="n">
-        <v>254.8940697039097</v>
+        <v>327.7789942844892</v>
       </c>
       <c r="N34" t="n">
-        <v>258.8095805429498</v>
+        <v>258.8095805429501</v>
       </c>
       <c r="O34" t="n">
-        <v>225.0818150766288</v>
+        <v>225.0818150766291</v>
       </c>
       <c r="P34" t="n">
-        <v>185.7208590509408</v>
+        <v>185.7208590509411</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.0703146378758</v>
+        <v>98.82163138001401</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37458,13 +37458,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266883</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966699</v>
+        <v>175.6323267038269</v>
       </c>
       <c r="L37" t="n">
         <v>254.9673908567486</v>
@@ -37476,16 +37476,16 @@
         <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>224.3924649189742</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37695,22 +37695,22 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266883</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J40" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M40" t="n">
         <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230782</v>
+        <v>249.3676628272372</v>
       </c>
       <c r="O40" t="n">
         <v>236.9961840848623</v>
@@ -37719,10 +37719,10 @@
         <v>197.6352280591743</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.37971366430169</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057649</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184479</v>
+        <v>88.27060879450178</v>
       </c>
       <c r="K43" t="n">
-        <v>196.9886134277721</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L43" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
         <v>270.7239495511833</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P43" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.46458104062491</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687115</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
@@ -38169,25 +38169,25 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J46" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K46" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>245.4521519881971</v>
       </c>
       <c r="N46" t="n">
         <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>225.72476473724</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
         <v>197.6352280591743</v>
@@ -38196,7 +38196,7 @@
         <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
